--- a/meeting-minutes/Group1_sprint1_meeting_minutes.xlsx
+++ b/meeting-minutes/Group1_sprint1_meeting_minutes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nico/Desktop/SOEN341/Group1-SOEN341_Project_F24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED65480C-9FD5-1D41-BA31-9EABE4FA33F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{ED65480C-9FD5-1D41-BA31-9EABE4FA33F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{461379A8-D2BC-4B35-AAF7-2280CF9C07D2}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="880" windowWidth="28800" windowHeight="16080" xr2:uid="{FE43FCAD-10C2-684E-A845-015397182438}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,6 +41,12 @@
     <t>Meeting</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
     <t>Greg</t>
   </si>
   <si>
@@ -60,71 +68,65 @@
     <t>Meeting Duration</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>September 19th, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disscused the overall work flow and task distributment. We will have the front end and back end teams. Aswell as the data management team. Each team will consist of 2 members.  </t>
+  </si>
+  <si>
+    <t>Will be  leading  the backend team. Greg holds the greatest website coding knowledge therefore he will oversee all the coding and assure smooth sailing.</t>
+  </si>
+  <si>
+    <t>Will take care of the user minutes meeting times. Asses necessary scheduling for greater team coordination and team chemistry. As well as start learning how to code and join the front end team.</t>
+  </si>
+  <si>
+    <t>Take team leader for thefront end, aswell as increase his knowledge in css through educational videos for the purpose of creating a sophisticated frontend.</t>
+  </si>
+  <si>
+    <t>Wiil take the lead for the data management . Tim will compile the user stories and tasks so the team can have a clear and concise understanding of the mission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will make a sprint planning page outline and will fill out the sprint planning page with respect to Nick &amp; Tim's stories &amp; task descriptions. Will also start watching educational videos on HTML programming to join along with the backend team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will take part in the data management team by compiling all of the user stories and taks to assure a proper targeted goal. Will also create the log format so that the team members can effectivley log all of their progress throught the project. </t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>September 27th, 2024</t>
+  </si>
+  <si>
+    <t>Assesed our progress on all the assigned tasks, gave more tasks and goals to the team members to effeciently complete sprint 1.</t>
+  </si>
+  <si>
+    <t>functionality of login, routing, and students account vs teacher account was created effectivley. Minor tweaks are needed towards the functionality of teams on the site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obtained a foundation for coding in css. Can now work on frontend. Took in all members progress and updated the user minutes.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created a working front login page that is  aesthetically pleasing with css. Now needs to code the frontend of the register page and instructor dashboard  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created clear and concise user stories aswell as tasks. Will now brain storm using in class techniques for ways to achieve site goal criteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successfully create the foundation of the sprint plan. As well as added the user stories  and further refined the goal criteria the team needs to meet. Learning how to further code in order to join the backend team. </t>
+  </si>
+  <si>
+    <t>Created clear and concise user stories aswell and further refined tasks. Created a better github structure and managed the project board for team organization.</t>
   </si>
   <si>
     <t>2.2 hrs</t>
-  </si>
-  <si>
-    <t>September 27th, 2024</t>
-  </si>
-  <si>
-    <t>September 19th, 2024</t>
-  </si>
-  <si>
-    <t>Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disscused the overall work flow and task distributment. We will have the front end and back end teams. Aswell as the data management team. Each team will consist of 2 members.  </t>
-  </si>
-  <si>
-    <t>Will take care of the user minutes meeting times. Asses necessary scheduling for greater team coordination and team chemistry. As well as start learning how to code and join the front end team.</t>
-  </si>
-  <si>
-    <t>Will be  leading  the backend team. Greg holds the greatest website coding knowledge therefore he will oversee all the coding and assure smooth sailing.</t>
-  </si>
-  <si>
-    <t>Take team leader for thefront end, aswell as increase his knowledge in css through educational videos for the purpose of creating a sophisticated frontend.</t>
-  </si>
-  <si>
-    <t>Wiil take the lead for the data management . Tim will compile the user stories and tasks so the team can have a clear and concise understanding of the mission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will make a sprint planning page outline and will fill out the sprint planning page with respect to Nick &amp; Tim's stories &amp; task descriptions. Will also start watching educational videos on HTML programming to join along with the backend team. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">will take part in the data management team by compiling all of the user stories and taks to assure a proper targeted goal. Will also create the log format so that the team members can effectivley log all of their progress throught the project. </t>
-  </si>
-  <si>
-    <t>Assesed our progress on all the assigned tasks, gave more tasks and goals to the team members to effeciently complete sprint 1.</t>
-  </si>
-  <si>
-    <t>functionality of login, routing, and students account vs teacher account was created effectivley. Minor tweaks are needed towards the functionality of teams on the site.</t>
-  </si>
-  <si>
-    <t>3 hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obtained a foundation for coding in css. Can now work on frontend. Took in all members progress and updated the user minutes.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created a working front login page that is  aesthetically pleasing with css. Now needs to code the frontend of the register page and instructor dashboard  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created clear and concise user stories aswell as tasks. Will now brain storm using in class techniques for ways to achieve site goal criteria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successfully create the foundation of the sprint plan. As well as added the user stories  and further refined the goal criteria the team needs to meet. Learning how to further code in order to join the backend team. </t>
-  </si>
-  <si>
-    <t>Created more user stories aswell as further refining tasks.Created a better github structure for team organization.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -754,93 +756,93 @@
   <dimension ref="Q3:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="18" max="18" width="23.1640625" customWidth="1"/>
+    <col min="18" max="18" width="23.125" customWidth="1"/>
     <col min="19" max="19" width="42" customWidth="1"/>
-    <col min="20" max="20" width="38.6640625" customWidth="1"/>
+    <col min="20" max="20" width="38.625" customWidth="1"/>
     <col min="21" max="21" width="35" customWidth="1"/>
-    <col min="22" max="22" width="33.83203125" customWidth="1"/>
-    <col min="23" max="23" width="27.6640625" customWidth="1"/>
+    <col min="22" max="22" width="33.875" customWidth="1"/>
+    <col min="23" max="23" width="27.625" customWidth="1"/>
     <col min="24" max="24" width="31.5" customWidth="1"/>
-    <col min="25" max="25" width="27.33203125" customWidth="1"/>
-    <col min="26" max="26" width="22.1640625" customWidth="1"/>
+    <col min="25" max="25" width="27.375" customWidth="1"/>
+    <col min="26" max="26" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="17:26" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="17:26" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="17:26" ht="17.100000000000001" thickBot="1"/>
+    <row r="4" spans="17:26" ht="18" thickBot="1">
       <c r="Q4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="Z4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="17:26" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="17:26" ht="159.94999999999999" customHeight="1">
       <c r="Q5" s="6">
         <v>1</v>
       </c>
       <c r="R5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="T5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="V5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="V5" s="7" t="s">
+      <c r="X5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="Y5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="Z5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="17:26" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="17:26" ht="96.75">
       <c r="Q6" s="10">
         <v>2</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>20</v>
@@ -849,25 +851,25 @@
         <v>21</v>
       </c>
       <c r="U6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="W6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="X6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Z6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="17:26" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="17:26" ht="54.95" customHeight="1">
       <c r="Q7" s="10">
         <v>3</v>
       </c>
@@ -881,7 +883,7 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="13"/>
     </row>
-    <row r="8" spans="17:26" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="17:26" ht="48.95" customHeight="1">
       <c r="Q8" s="10">
         <v>4</v>
       </c>
@@ -895,7 +897,7 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" spans="17:26" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="17:26" ht="54.95" customHeight="1">
       <c r="Q9" s="10">
         <v>5</v>
       </c>
@@ -909,7 +911,7 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="13"/>
     </row>
-    <row r="10" spans="17:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="17:26">
       <c r="Q10" s="10">
         <v>6</v>
       </c>
@@ -923,7 +925,7 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="13"/>
     </row>
-    <row r="11" spans="17:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="17:26">
       <c r="Q11" s="10">
         <v>7</v>
       </c>
@@ -937,7 +939,7 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" spans="17:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="17:26">
       <c r="Q12" s="10">
         <v>8</v>
       </c>
@@ -951,7 +953,7 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="13"/>
     </row>
-    <row r="13" spans="17:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="17:26">
       <c r="Q13" s="10">
         <v>9</v>
       </c>
@@ -965,7 +967,7 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="13"/>
     </row>
-    <row r="14" spans="17:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="17:26">
       <c r="Q14" s="10">
         <v>10</v>
       </c>
@@ -979,7 +981,7 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15" spans="17:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="17:26">
       <c r="Q15" s="10">
         <v>11</v>
       </c>
@@ -993,7 +995,7 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="13"/>
     </row>
-    <row r="16" spans="17:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="17:26">
       <c r="Q16" s="10">
         <v>12</v>
       </c>
@@ -1007,7 +1009,7 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" spans="17:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="17:26">
       <c r="Q17" s="10">
         <v>13</v>
       </c>
@@ -1021,7 +1023,7 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="13"/>
     </row>
-    <row r="18" spans="17:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:26" ht="17.100000000000001" thickBot="1">
       <c r="Q18" s="10">
         <v>14</v>
       </c>
